--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T13:17:44+00:00</t>
+    <t>2025-02-26T09:37:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3758,7 +3758,9 @@
     <t>2025-02-27</t>
   </si>
   <si>
-    <t>Organisasjoner i norsk helse- og omsorgstjeneste, som sykehus og sykehjem, og avdelinger/poster under disse.</t>
+    <t xml:space="preserve">Organisasjoner i norsk helse- og omsorgstjeneste, som post, avdeling, klinikk, sykehus og sykehjem. 
+Denne profilen av Organization benyttes for å beskrive helseinstitusjoner og skal representere organisasjonen på lavest mulig nivå i organisasjonshierarkiet (f.eks. en avdeling eller klinikk eller post).
+For organisasjonen som er del av en større organisasjon, skal dette angis ved hjelp av partOf-relasjonen. Alle “organisasjonshierarki” skal inkludere minst et organisasjonsnummer fra Enhetsregisteret (identifier:ENH) </t>
   </si>
   <si>
     <t>Organization</t>
@@ -3804,13 +3806,13 @@
     <t>Organization.identifier</t>
   </si>
   <si>
-    <t>Organisasjonsidentifikatorer (ENH/RESH)</t>
+    <t>ID fra Nasjonalt register for enheter i spesialisthelsetjenesten (RESH) eller Organisasjonsnummeret i Enhetsregister</t>
   </si>
   <si>
     <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
   </si>
   <si>
-    <t>Identifikatorer skal angis på laveste mulige organisatoriske nivå. For eksempel organisasjonsnummer for sykehjemmet fremfor kommunen der det finnes.</t>
+    <t>Der aktiviteten har skjedd.</t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
@@ -3826,7 +3828,7 @@
     <t>ENH</t>
   </si>
   <si>
-    <t>Organisasjonsnummer fra Enhetsregisteret</t>
+    <t>Organisasjonsnummer fra Enhetsregisteret (ENH)</t>
   </si>
   <si>
     <t>Identifikatorer skal angis på laveste relevante virksomhetsnivå i henhold til SSBs retningslinjer. For kommunale tjenester betyr dette på institusjonsnivå (f.eks sykehjem) der egen organisatorisk enhet er etablert, ikke på overordnet kommunenivå.</t>
@@ -3985,7 +3987,7 @@
     <t>RESH</t>
   </si>
   <si>
-    <t>ID fra Register for enheter i spesialisthelsetjenesten</t>
+    <t>ID fra Register for enheter i spesialisthelsetjenesten (RESH)</t>
   </si>
   <si>
     <t>Det nivået aktiviteten har skjedd på.</t>
@@ -4069,7 +4071,7 @@
     <t>Offisielt navn på organisasjonen</t>
   </si>
   <si>
-    <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
+    <t>Kan være navn på post, avdelingsnavn, klinikknavn, sykehusnavn eller sykehjemsnavn</t>
   </si>
   <si>
     <t>Need to use the name as the label of the organization.</t>
@@ -32027,7 +32029,7 @@
       </c>
       <c r="F227" s="2"/>
       <c r="G227" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H227" t="s" s="2">
         <v>83</v>
@@ -32873,7 +32875,7 @@
       </c>
       <c r="F235" s="2"/>
       <c r="G235" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H235" t="s" s="2">
         <v>83</v>
@@ -33085,7 +33087,7 @@
       </c>
       <c r="F237" s="2"/>
       <c r="G237" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H237" t="s" s="2">
         <v>83</v>
@@ -33196,7 +33198,7 @@
         <v>83</v>
       </c>
       <c r="I238" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J238" t="s" s="2">
         <v>75</v>
